--- a/Team Project Tracking Sheets.xlsx
+++ b/Team Project Tracking Sheets.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\CS-410\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vv3383my\Documents\GitHub\Card-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16155" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Copyright - Sudharsan Iyengar - August 2017.</t>
   </si>
@@ -127,13 +127,19 @@
   </si>
   <si>
     <t>Revisions based on Testing</t>
+  </si>
+  <si>
+    <t>Matt Johnson</t>
+  </si>
+  <si>
+    <t>2 hr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1059,11 +1065,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="14.28515625" style="1" customWidth="1"/>
@@ -1076,7 +1082,7 @@
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75">
+    <row r="1" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1086,13 +1092,13 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1103,13 +1109,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="2:13" ht="45">
+    <row r="6" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1150,20 +1156,26 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="2:13" ht="30">
+    <row r="8" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1174,7 +1186,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="2:13" ht="45">
+    <row r="10" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1187,7 +1199,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1198,7 +1210,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="2:13" ht="45">
+    <row r="12" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
@@ -1211,7 +1223,7 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1222,7 +1234,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="2:13" ht="60">
+    <row r="14" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1235,7 +1247,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1246,7 +1258,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="2:13" ht="60">
+    <row r="16" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
@@ -1267,23 +1279,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="30">
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30">
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1294,92 +1306,92 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -1394,11 +1406,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="5" width="14.28515625" style="1" customWidth="1"/>
@@ -1407,7 +1419,7 @@
     <col min="8" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="s">
         <v>24</v>
       </c>
@@ -1416,7 +1428,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="4" spans="3:7" ht="30">
+    <row r="4" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1433,154 +1445,154 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="3:7">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1599,18 +1611,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="s">
         <v>30</v>
       </c>
@@ -1619,14 +1631,14 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="3:7" ht="30">
+    <row r="4" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1643,154 +1655,154 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="3:7">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1809,18 +1821,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C3:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
         <v>31</v>
       </c>
@@ -1829,14 +1841,14 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="3:7" ht="30">
+    <row r="5" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1853,154 +1865,154 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="3:7">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2019,11 +2031,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
@@ -2032,7 +2044,7 @@
     <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
         <v>32</v>
       </c>
@@ -2041,14 +2053,14 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="3:7" ht="45">
+    <row r="5" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
@@ -2065,154 +2077,154 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="3:7">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2231,18 +2243,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C3:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
         <v>33</v>
       </c>
@@ -2251,14 +2263,14 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="3:7" ht="45">
+    <row r="5" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
@@ -2275,154 +2287,154 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="3:7">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
